--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -1151,8 +1151,8 @@
   <sheetPr/>
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1308,37 +1308,37 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>0.7</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
       <c r="K4">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="L4">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -1748,37 +1748,37 @@
         <v>998</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>550</v>
+      </c>
+      <c r="G14">
+        <v>0.75</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="M14" t="s">
         <v>52</v>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="BiomeInfo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -52,6 +65,9 @@
     <t>oceanHeight</t>
   </si>
   <si>
+    <t>oreData</t>
+  </si>
+  <si>
     <t>name_cn</t>
   </si>
   <si>
@@ -106,10 +122,16 @@
     <t>海面高度</t>
   </si>
   <si>
+    <t>矿石数据(id_density_minH_maxH&amp;id_density_minH_max)density在0-1 越接近1 矿石越稀少</t>
+  </si>
+  <si>
     <t>中文名字</t>
   </si>
   <si>
     <t>英文名字</t>
+  </si>
+  <si>
+    <t>900_0.9_1_256&amp;901_0.95_30_256</t>
   </si>
   <si>
     <t>平原</t>
@@ -187,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1149,16 +1171,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="37.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="28.1916666666667" customWidth="1"/>
+    <col min="2" max="2" width="26.4583333333333" customWidth="1"/>
+    <col min="3" max="3" width="24.225" customWidth="1"/>
     <col min="4" max="4" width="12.2416666666667" customWidth="1"/>
     <col min="5" max="5" width="22.7583333333333" customWidth="1"/>
     <col min="6" max="6" width="11.4666666666667" customWidth="1"/>
@@ -1167,11 +1189,12 @@
     <col min="9" max="9" width="22.325" customWidth="1"/>
     <col min="10" max="10" width="24.65" customWidth="1"/>
     <col min="11" max="12" width="16.375" customWidth="1"/>
-    <col min="13" max="13" width="42.875" customWidth="1"/>
-    <col min="14" max="14" width="25.125" customWidth="1"/>
+    <col min="13" max="13" width="49.8166666666667" customWidth="1"/>
+    <col min="14" max="14" width="42.875" customWidth="1"/>
+    <col min="15" max="15" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1214,96 +1237,105 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1341,13 +1373,16 @@
         <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1364,19 +1399,19 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>20</v>
@@ -1384,14 +1419,14 @@
       <c r="L5">
         <v>15</v>
       </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1408,19 +1443,19 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
         <v>2</v>
-      </c>
-      <c r="I6">
-        <v>0.5</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
       </c>
       <c r="K6">
         <v>40</v>
@@ -1428,14 +1463,14 @@
       <c r="L6">
         <v>15</v>
       </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1452,19 +1487,19 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7">
         <v>2</v>
-      </c>
-      <c r="I7">
-        <v>0.5</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
       </c>
       <c r="K7">
         <v>40</v>
@@ -1472,14 +1507,14 @@
       <c r="L7">
         <v>15</v>
       </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1496,19 +1531,19 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+      <c r="J8">
         <v>2</v>
-      </c>
-      <c r="I8">
-        <v>0.5</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
       </c>
       <c r="K8">
         <v>40</v>
@@ -1516,14 +1551,14 @@
       <c r="L8">
         <v>15</v>
       </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1540,19 +1575,19 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>0.2</v>
+      </c>
+      <c r="J9">
         <v>2</v>
-      </c>
-      <c r="I9">
-        <v>0.5</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
       </c>
       <c r="K9">
         <v>40</v>
@@ -1560,14 +1595,14 @@
       <c r="L9">
         <v>15</v>
       </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1584,19 +1619,19 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+      <c r="J10">
         <v>2</v>
-      </c>
-      <c r="I10">
-        <v>0.5</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
       </c>
       <c r="K10">
         <v>40</v>
@@ -1604,14 +1639,14 @@
       <c r="L10">
         <v>15</v>
       </c>
-      <c r="M10" t="s">
-        <v>44</v>
-      </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1628,19 +1663,19 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>0.2</v>
+      </c>
+      <c r="J11">
         <v>2</v>
-      </c>
-      <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
       </c>
       <c r="K11">
         <v>40</v>
@@ -1648,14 +1683,14 @@
       <c r="L11">
         <v>15</v>
       </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1672,19 +1707,19 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>0.2</v>
+      </c>
+      <c r="J12">
         <v>2</v>
-      </c>
-      <c r="I12">
-        <v>0.5</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
       </c>
       <c r="K12">
         <v>40</v>
@@ -1692,14 +1727,14 @@
       <c r="L12">
         <v>15</v>
       </c>
-      <c r="M12" t="s">
-        <v>48</v>
-      </c>
       <c r="N12" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1716,19 +1751,19 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+      <c r="J13">
         <v>2</v>
-      </c>
-      <c r="I13">
-        <v>0.5</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
       </c>
       <c r="K13">
         <v>40</v>
@@ -1736,14 +1771,14 @@
       <c r="L13">
         <v>15</v>
       </c>
-      <c r="M13" t="s">
-        <v>50</v>
-      </c>
       <c r="N13" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="O13" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>998</v>
       </c>
@@ -1760,19 +1795,19 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>64</v>
@@ -1781,13 +1816,16 @@
         <v>64</v>
       </c>
       <c r="M14" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>999</v>
       </c>
@@ -1804,19 +1842,19 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>40</v>
@@ -1824,11 +1862,11 @@
       <c r="L15">
         <v>15</v>
       </c>
-      <c r="M15" t="s">
-        <v>54</v>
-      </c>
       <c r="N15" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1852,7 +1890,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:N88">
+  <sortState ref="A4:O88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25575" windowHeight="10980"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="BiomeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,12 @@
     <t>octaves</t>
   </si>
   <si>
+    <t>caveMinHeight</t>
+  </si>
+  <si>
+    <t>caveMaxHeight</t>
+  </si>
+  <si>
     <t>caveScale</t>
   </si>
   <si>
@@ -62,7 +68,22 @@
     <t>groundMinHeigh</t>
   </si>
   <si>
-    <t>oceanHeight</t>
+    <t>oceanMinHeight</t>
+  </si>
+  <si>
+    <t>oceanMaxHeight</t>
+  </si>
+  <si>
+    <t>oceanScale</t>
+  </si>
+  <si>
+    <t>oceanThreshold</t>
+  </si>
+  <si>
+    <t>oceanAmplitude</t>
+  </si>
+  <si>
+    <t>oceanFrequency</t>
   </si>
   <si>
     <t>oreData</t>
@@ -101,6 +122,12 @@
     <t>噪音循环迭代次数 复杂度</t>
   </si>
   <si>
+    <t>洞穴最小高度</t>
+  </si>
+  <si>
+    <t>洞穴最大高度</t>
+  </si>
+  <si>
     <t>洞穴大小</t>
   </si>
   <si>
@@ -119,7 +146,22 @@
     <t>地面的最低高度</t>
   </si>
   <si>
-    <t>海面高度</t>
+    <t>海水最低高度</t>
+  </si>
+  <si>
+    <t>海水最高高度</t>
+  </si>
+  <si>
+    <t>水的大小</t>
+  </si>
+  <si>
+    <t>水的阈值</t>
+  </si>
+  <si>
+    <t>水的振幅</t>
+  </si>
+  <si>
+    <t>水的频率</t>
   </si>
   <si>
     <t>矿石数据(id_density_minH_maxH&amp;id_density_minH_max)density在0-1 越接近1 矿石越稀少</t>
@@ -1171,10 +1213,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1182,19 +1224,19 @@
     <col min="2" max="2" width="26.4583333333333" customWidth="1"/>
     <col min="3" max="3" width="24.225" customWidth="1"/>
     <col min="4" max="4" width="12.2416666666667" customWidth="1"/>
-    <col min="5" max="5" width="22.7583333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.4666666666667" customWidth="1"/>
-    <col min="7" max="7" width="23.025" customWidth="1"/>
-    <col min="8" max="8" width="28.3583333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.325" customWidth="1"/>
-    <col min="10" max="10" width="24.65" customWidth="1"/>
-    <col min="11" max="12" width="16.375" customWidth="1"/>
-    <col min="13" max="13" width="49.8166666666667" customWidth="1"/>
-    <col min="14" max="14" width="42.875" customWidth="1"/>
-    <col min="15" max="15" width="25.125" customWidth="1"/>
+    <col min="5" max="7" width="22.7583333333333" customWidth="1"/>
+    <col min="8" max="8" width="11.4666666666667" customWidth="1"/>
+    <col min="9" max="9" width="23.025" customWidth="1"/>
+    <col min="10" max="10" width="28.3583333333333" customWidth="1"/>
+    <col min="11" max="11" width="22.325" customWidth="1"/>
+    <col min="12" max="12" width="24.65" customWidth="1"/>
+    <col min="13" max="19" width="16.375" customWidth="1"/>
+    <col min="20" max="20" width="49.8166666666667" customWidth="1"/>
+    <col min="21" max="21" width="42.875" customWidth="1"/>
+    <col min="22" max="22" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1240,102 +1282,165 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1352,81 +1457,123 @@
         <v>5</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>65</v>
+      </c>
+      <c r="H4">
         <v>50</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.7</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>6</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.2</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>64</v>
       </c>
-      <c r="L4">
+      <c r="N4">
+        <v>60</v>
+      </c>
+      <c r="O4">
         <v>64</v>
       </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" t="s">
-        <v>36</v>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>65</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>0.7</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>0.7</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>0.2</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>15</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
+      <c r="M5">
+        <v>64</v>
+      </c>
+      <c r="N5">
+        <v>64</v>
+      </c>
+      <c r="O5">
+        <v>64</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1443,34 +1590,55 @@
         <v>5</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>65</v>
+      </c>
+      <c r="H6">
         <v>50</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.7</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>6</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.2</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>40</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>15</v>
       </c>
-      <c r="N6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" t="s">
-        <v>40</v>
+      <c r="O6">
+        <v>64</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1487,34 +1655,55 @@
         <v>5</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>65</v>
+      </c>
+      <c r="H7">
         <v>50</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.7</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.2</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>40</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>15</v>
       </c>
-      <c r="N7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" t="s">
-        <v>42</v>
+      <c r="O7">
+        <v>64</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1531,34 +1720,55 @@
         <v>5</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>65</v>
+      </c>
+      <c r="H8">
         <v>50</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.7</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>6</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.2</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>40</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>15</v>
       </c>
-      <c r="N8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" t="s">
-        <v>44</v>
+      <c r="O8">
+        <v>64</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>57</v>
+      </c>
+      <c r="V8" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1575,34 +1785,55 @@
         <v>5</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>65</v>
+      </c>
+      <c r="H9">
         <v>50</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.7</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.2</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>2</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>40</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>15</v>
       </c>
-      <c r="N9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" t="s">
-        <v>46</v>
+      <c r="O9">
+        <v>64</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1619,34 +1850,55 @@
         <v>5</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>65</v>
+      </c>
+      <c r="H10">
         <v>50</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.7</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.2</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>2</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>40</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>15</v>
       </c>
-      <c r="N10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" t="s">
-        <v>48</v>
+      <c r="O10">
+        <v>64</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1663,34 +1915,55 @@
         <v>5</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>65</v>
+      </c>
+      <c r="H11">
         <v>50</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.7</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>6</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.2</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>40</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>15</v>
       </c>
-      <c r="N11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" t="s">
-        <v>50</v>
+      <c r="O11">
+        <v>64</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1707,34 +1980,55 @@
         <v>5</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>65</v>
+      </c>
+      <c r="H12">
         <v>50</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.7</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>6</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.2</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>2</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>40</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>15</v>
       </c>
-      <c r="N12" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" t="s">
-        <v>52</v>
+      <c r="O12">
+        <v>64</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>65</v>
+      </c>
+      <c r="V12" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1751,81 +2045,123 @@
         <v>5</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>65</v>
+      </c>
+      <c r="H13">
         <v>50</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>0.7</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>6</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.2</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>2</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>40</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>15</v>
       </c>
-      <c r="N13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" t="s">
-        <v>54</v>
+      <c r="O13">
+        <v>64</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V13" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>998</v>
       </c>
       <c r="B14">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="C14">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="D14">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14">
+        <v>0.2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>60</v>
+      </c>
+      <c r="N14">
         <v>64</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>64</v>
       </c>
-      <c r="M14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" t="s">
-        <v>56</v>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U14" t="s">
+        <v>69</v>
+      </c>
+      <c r="V14" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>999</v>
       </c>
@@ -1842,10 +2178,10 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1857,16 +2193,37 @@
         <v>0</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>40</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>15</v>
       </c>
-      <c r="N15" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" t="s">
-        <v>58</v>
+      <c r="O15">
+        <v>64</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1890,7 +2247,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:O88">
+  <sortState ref="A4:V88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="26295" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="BiomeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -1215,8 +1215,8 @@
   <sheetPr/>
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1457,10 +1457,10 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -1481,7 +1481,7 @@
         <v>64</v>
       </c>
       <c r="N4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4">
         <v>64</v>
@@ -1525,10 +1525,10 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -1549,22 +1549,25 @@
         <v>64</v>
       </c>
       <c r="N5">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O5">
         <v>64</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>48</v>
       </c>
       <c r="U5" t="s">
         <v>51</v>
@@ -1578,22 +1581,22 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="C6">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="D6">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -1611,10 +1614,10 @@
         <v>2</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N6">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="O6">
         <v>64</v>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1646,22 +1646,22 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="C7">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="D7">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -1679,25 +1679,25 @@
         <v>2</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="O7">
         <v>64</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" t="s">
         <v>55</v>
@@ -1711,22 +1711,22 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>700</v>
+        <v>65</v>
       </c>
       <c r="C8">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="D8">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="H8">
         <v>50</v>
@@ -1744,25 +1744,25 @@
         <v>2</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="O8">
         <v>64</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U8" t="s">
         <v>57</v>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="H8">
         <v>50</v>
@@ -1776,22 +1776,22 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C9">
-        <v>0.27</v>
+        <v>0.295</v>
       </c>
       <c r="D9">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="H9">
         <v>50</v>
@@ -1809,13 +1809,13 @@
         <v>2</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -240,12 +240,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1210,7 @@
   <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2036,22 +2030,22 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="H13">
         <v>50</v>
@@ -2069,25 +2063,25 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N13">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="O13">
         <v>64</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" t="s">
         <v>67</v>
@@ -2162,71 +2156,6 @@
       </c>
       <c r="V14" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15">
-        <v>999</v>
-      </c>
-      <c r="B15">
-        <v>700</v>
-      </c>
-      <c r="C15">
-        <v>0.27</v>
-      </c>
-      <c r="D15">
-        <v>3.3</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>65</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>40</v>
-      </c>
-      <c r="N15">
-        <v>15</v>
-      </c>
-      <c r="O15">
-        <v>64</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="U15" t="s">
-        <v>71</v>
-      </c>
-      <c r="V15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26295" windowHeight="12735"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="BiomeInfo" sheetId="1" r:id="rId1"/>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1965,22 +1965,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>700</v>
+        <v>130</v>
       </c>
       <c r="C12">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="D12">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="H12">
         <v>50</v>
@@ -1998,25 +1998,25 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N12">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="O12">
         <v>64</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12" t="s">
         <v>65</v>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1900,22 +1900,22 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="C11">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="H11">
         <v>50</v>
@@ -1933,13 +1933,13 @@
         <v>2</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1835,22 +1835,22 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="C10">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="D10">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="H10">
         <v>50</v>
@@ -1868,13 +1868,13 @@
         <v>2</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -1209,8 +1209,8 @@
   <sheetPr/>
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1628,6 +1628,7 @@
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6"/>
       <c r="U6" t="s">
         <v>53</v>
       </c>
@@ -1693,6 +1694,7 @@
       <c r="S7">
         <v>2</v>
       </c>
+      <c r="T7"/>
       <c r="U7" t="s">
         <v>55</v>
       </c>
@@ -1758,6 +1760,7 @@
       <c r="S8">
         <v>3</v>
       </c>
+      <c r="T8"/>
       <c r="U8" t="s">
         <v>57</v>
       </c>
@@ -1823,6 +1826,7 @@
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9"/>
       <c r="U9" t="s">
         <v>59</v>
       </c>
@@ -1888,6 +1892,7 @@
       <c r="S10">
         <v>0</v>
       </c>
+      <c r="T10"/>
       <c r="U10" t="s">
         <v>61</v>
       </c>
@@ -1953,6 +1958,7 @@
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11"/>
       <c r="U11" t="s">
         <v>63</v>
       </c>
@@ -2018,6 +2024,9 @@
       <c r="S12">
         <v>2</v>
       </c>
+      <c r="T12" t="s">
+        <v>48</v>
+      </c>
       <c r="U12" t="s">
         <v>65</v>
       </c>
@@ -2083,6 +2092,9 @@
       <c r="S13">
         <v>2</v>
       </c>
+      <c r="T13" t="s">
+        <v>48</v>
+      </c>
       <c r="U13" t="s">
         <v>67</v>
       </c>
@@ -2148,9 +2160,7 @@
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14" t="s">
-        <v>48</v>
-      </c>
+      <c r="T14"/>
       <c r="U14" t="s">
         <v>69</v>
       </c>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="11025" windowHeight="6465"/>
   </bookViews>
   <sheets>
     <sheet name="BiomeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>主界面</t>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
@@ -1209,8 +1215,8 @@
   <sheetPr/>
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1628,7 +1634,6 @@
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6"/>
       <c r="U6" t="s">
         <v>53</v>
       </c>
@@ -1694,7 +1699,6 @@
       <c r="S7">
         <v>2</v>
       </c>
-      <c r="T7"/>
       <c r="U7" t="s">
         <v>55</v>
       </c>
@@ -1760,7 +1764,6 @@
       <c r="S8">
         <v>3</v>
       </c>
-      <c r="T8"/>
       <c r="U8" t="s">
         <v>57</v>
       </c>
@@ -1826,7 +1829,6 @@
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9"/>
       <c r="U9" t="s">
         <v>59</v>
       </c>
@@ -1892,7 +1894,6 @@
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10"/>
       <c r="U10" t="s">
         <v>61</v>
       </c>
@@ -1958,7 +1959,6 @@
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11"/>
       <c r="U11" t="s">
         <v>63</v>
       </c>
@@ -2160,12 +2160,76 @@
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14"/>
       <c r="U14" t="s">
         <v>69</v>
       </c>
       <c r="V14" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <v>999</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11025" windowHeight="6465"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="BiomeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>腐化地牢-基础</t>
+  </si>
+  <si>
+    <t>PutrefyDungeon-Base</t>
   </si>
 </sst>
 </file>
@@ -1215,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2230,6 +2236,71 @@
       </c>
       <c r="V15" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>1001</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>73</v>
+      </c>
+      <c r="V16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -1221,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1567,7 +1567,7 @@
         <v>0.6</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -1700,7 +1700,7 @@
         <v>0.6</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="S7">
         <v>2</v>
@@ -1765,7 +1765,7 @@
         <v>0.3</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="S8">
         <v>3</v>
@@ -2025,7 +2025,7 @@
         <v>0.6</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="S12">
         <v>2</v>
@@ -2093,7 +2093,7 @@
         <v>0.6</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="S13">
         <v>2</v>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -1221,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1785,7 +1785,7 @@
         <v>500</v>
       </c>
       <c r="C9">
-        <v>0.295</v>
+        <v>0.35</v>
       </c>
       <c r="D9">
         <v>2.8</v>
@@ -1915,7 +1915,7 @@
         <v>300</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="D11">
         <v>2.8</v>

--- a/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_biome_info[生态信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -89,6 +89,9 @@
     <t>oreData</t>
   </si>
   <si>
+    <t>creatureData</t>
+  </si>
+  <si>
     <t>name_cn</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
     <t>矿石数据(id_density_minH_maxH&amp;id_density_minH_max)density在0-1 越接近1 矿石越稀少</t>
   </si>
   <si>
+    <t>生物信息id_createRange_rangeMaxNum</t>
+  </si>
+  <si>
     <t>中文名字</t>
   </si>
   <si>
@@ -180,6 +186,9 @@
   </si>
   <si>
     <t>Prairie</t>
+  </si>
+  <si>
+    <t>10001_3_5&amp;10011_3_5&amp;10021_3_5&amp;10031_3_5</t>
   </si>
   <si>
     <t>森林</t>
@@ -1219,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1237,12 +1246,12 @@
     <col min="11" max="11" width="22.325" customWidth="1"/>
     <col min="12" max="12" width="24.65" customWidth="1"/>
     <col min="13" max="19" width="16.375" customWidth="1"/>
-    <col min="20" max="20" width="49.8166666666667" customWidth="1"/>
-    <col min="21" max="21" width="42.875" customWidth="1"/>
-    <col min="22" max="22" width="25.125" customWidth="1"/>
+    <col min="20" max="21" width="49.8166666666667" customWidth="1"/>
+    <col min="22" max="22" width="42.875" customWidth="1"/>
+    <col min="23" max="23" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1309,144 +1318,153 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" t="s">
-        <v>23</v>
-      </c>
       <c r="T2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="W3" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1505,16 +1523,17 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="U4"/>
       <c r="V4" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="W4" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1573,16 +1592,19 @@
         <v>2</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="W5" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1640,14 +1662,14 @@
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="U6" t="s">
-        <v>53</v>
-      </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="W6" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1705,14 +1727,14 @@
       <c r="S7">
         <v>2</v>
       </c>
-      <c r="U7" t="s">
-        <v>55</v>
-      </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="W7" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1770,14 +1792,14 @@
       <c r="S8">
         <v>3</v>
       </c>
-      <c r="U8" t="s">
-        <v>57</v>
-      </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="W8" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1835,14 +1857,14 @@
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="U9" t="s">
-        <v>59</v>
-      </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="W9" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1900,14 +1922,14 @@
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="U10" t="s">
-        <v>61</v>
-      </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="W10" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1965,14 +1987,14 @@
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="U11" t="s">
-        <v>63</v>
-      </c>
       <c r="V11" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="W11" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2031,16 +2053,16 @@
         <v>2</v>
       </c>
       <c r="T12" t="s">
-        <v>48</v>
-      </c>
-      <c r="U12" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="V12" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="W12" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2099,16 +2121,16 @@
         <v>2</v>
       </c>
       <c r="T13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U13" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="V13" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="W13" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>998</v>
       </c>
@@ -2167,13 +2189,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="V14" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="W14" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>999</v>
       </c>
@@ -2231,14 +2256,14 @@
       <c r="S15">
         <v>0</v>
       </c>
-      <c r="U15" t="s">
-        <v>71</v>
-      </c>
       <c r="V15" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="W15" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>1001</v>
       </c>
@@ -2296,11 +2321,11 @@
       <c r="S16">
         <v>0</v>
       </c>
-      <c r="U16" t="s">
-        <v>73</v>
-      </c>
       <c r="V16" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="W16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -2324,7 +2349,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:V88">
+  <sortState ref="A4:W88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
